--- a/sponsors/records.xlsx
+++ b/sponsors/records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gold-sponsor" sheetId="2" r:id="rId1"/>
@@ -35,15 +35,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://costcertified.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Mamadou-Wann.svg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://costcertified.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -447,10 +447,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
